--- a/PP_presentations/Project_hours_log.xlsx
+++ b/PP_presentations/Project_hours_log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s324281_studenti_polito_it/Documents/Desktop/1 ANNO/2 semestre/CARENA Project Software-defined communication systems/project 5G cars/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\bert\github\5G_CARS_1\PP_presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{A51A65EE-188A-43BB-84FA-A952372A5334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{155FE3D7-988F-4C71-ACD5-5D148A2C9A4C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1A5F58-9FAA-4C32-99FD-9FA7423A7B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5B27D4F5-72DB-48E7-A79E-BB6FACA4BAA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B27D4F5-72DB-48E7-A79E-BB6FACA4BAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -101,7 +101,25 @@
     <t>Meeting to verify what we did up to now</t>
   </si>
   <si>
-    <t>21.30 h</t>
+    <t>24.00 h</t>
+  </si>
+  <si>
+    <t>We started to think some different solution to adopt</t>
+  </si>
+  <si>
+    <t>10.00-12.30</t>
+  </si>
+  <si>
+    <t>Setting up mmdetection</t>
+  </si>
+  <si>
+    <t>Meeting to finalize the CV model and retirieving the images from airsim</t>
+  </si>
+  <si>
+    <t>14.00-20.00</t>
+  </si>
+  <si>
+    <t>9.30-13.00</t>
   </si>
 </sst>
 </file>
@@ -241,10 +259,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -564,20 +578,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F03750-5A9C-4FAA-9A20-71EE33EFB68C}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -591,7 +605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>45369</v>
       </c>
@@ -605,7 +619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>45370</v>
       </c>
@@ -616,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>45371</v>
       </c>
@@ -627,7 +641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>45372</v>
       </c>
@@ -638,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>45374</v>
       </c>
@@ -649,7 +663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>45386</v>
       </c>
@@ -660,7 +674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>45387</v>
       </c>
@@ -671,7 +685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>45391</v>
       </c>
@@ -682,26 +696,59 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>45397</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>45398</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>45400</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>45403</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>45404</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/PP_presentations/Project_hours_log.xlsx
+++ b/PP_presentations/Project_hours_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\bert\github\5G_CARS_1\PP_presentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtap5\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1A5F58-9FAA-4C32-99FD-9FA7423A7B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7605222-843E-4898-B4CF-C37AB4371A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B27D4F5-72DB-48E7-A79E-BB6FACA4BAA3}"/>
+    <workbookView xWindow="345" yWindow="2970" windowWidth="28800" windowHeight="15345" xr2:uid="{5B27D4F5-72DB-48E7-A79E-BB6FACA4BAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -83,9 +83,6 @@
     <t>18.30-19.30</t>
   </si>
   <si>
-    <t>11.30-13.00</t>
-  </si>
-  <si>
     <t>Setup Airsim</t>
   </si>
   <si>
@@ -101,15 +98,6 @@
     <t>Meeting to verify what we did up to now</t>
   </si>
   <si>
-    <t>24.00 h</t>
-  </si>
-  <si>
-    <t>We started to think some different solution to adopt</t>
-  </si>
-  <si>
-    <t>10.00-12.30</t>
-  </si>
-  <si>
     <t>Setting up mmdetection</t>
   </si>
   <si>
@@ -119,7 +107,193 @@
     <t>14.00-20.00</t>
   </si>
   <si>
-    <t>9.30-13.00</t>
+    <t>Meeting to try different solution from mmdetection such as mmsegmentation</t>
+  </si>
+  <si>
+    <t>9.30-15.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tried different backbone to see the differences </t>
+  </si>
+  <si>
+    <t>14.00-18.00</t>
+  </si>
+  <si>
+    <t>Started to prepare the V0 presentation</t>
+  </si>
+  <si>
+    <t>Meeting to rieview the presentation and after fixing what necessary</t>
+  </si>
+  <si>
+    <t>Research phase to understand how to implement the control logic and wi fi channel</t>
+  </si>
+  <si>
+    <t>16.00-22.00</t>
+  </si>
+  <si>
+    <t>Meeting for control logic implementation (brainstorming),in order to have an idea of the algorithm</t>
+  </si>
+  <si>
+    <t>14.00-19.00</t>
+  </si>
+  <si>
+    <t>Implementation of control logic + research on wi fi 6</t>
+  </si>
+  <si>
+    <t>8.30-14.30</t>
+  </si>
+  <si>
+    <t>Implementation of control logic + decision on the algorithm to use to simulate wi fi 6</t>
+  </si>
+  <si>
+    <t>15.00-19.00</t>
+  </si>
+  <si>
+    <t>Parallel implementation of control logicc and wi-fi channel</t>
+  </si>
+  <si>
+    <t>16.00-20.00</t>
+  </si>
+  <si>
+    <t>Combining the different block in the simulation loop</t>
+  </si>
+  <si>
+    <t>14.00-21.00</t>
+  </si>
+  <si>
+    <t>Combining the different block in the simulation loop + starting to build the V1 presentation</t>
+  </si>
+  <si>
+    <t>8.30-14.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters tuning </t>
+  </si>
+  <si>
+    <t>Parameters tuning + review of the presentation</t>
+  </si>
+  <si>
+    <t>Presentation adjustment + brainstorming idea of GUI for V2</t>
+  </si>
+  <si>
+    <t>Building GUI + review of the V1 presentation</t>
+  </si>
+  <si>
+    <t>Start of GUI development</t>
+  </si>
+  <si>
+    <t>9.00-14.00</t>
+  </si>
+  <si>
+    <t>10.00-14.00</t>
+  </si>
+  <si>
+    <t>GUI development</t>
+  </si>
+  <si>
+    <t>GUI development + start to take the input from the GUI to tun the simulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI integration + writing report </t>
+  </si>
+  <si>
+    <t>GUI adjustment + writing report</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30/05/2024</t>
+  </si>
+  <si>
+    <t>Research phase for the wi fi characteristics</t>
+  </si>
+  <si>
+    <t>14.'00-22.00</t>
+  </si>
+  <si>
+    <t>Literature brainstorming for channel and path logic algorithm</t>
+  </si>
+  <si>
+    <t>14.00-22.00</t>
+  </si>
+  <si>
+    <t>15.00-22.00</t>
+  </si>
+  <si>
+    <t>29/05/024</t>
+  </si>
+  <si>
+    <t>12.00-19.00</t>
+  </si>
+  <si>
+    <t>Bonus features implementation (offline simulation)</t>
+  </si>
+  <si>
+    <t>Brainstorming on different solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refining the Gui with the new features implemented + report </t>
+  </si>
+  <si>
+    <t>8.00-12.00</t>
+  </si>
+  <si>
+    <t>Ultimate adjustement of the GUI + report</t>
+  </si>
+  <si>
+    <t>13.00-19.00</t>
+  </si>
+  <si>
+    <t>11.30-15.00</t>
+  </si>
+  <si>
+    <t>9.00-16.00</t>
+  </si>
+  <si>
+    <t>10.00-16.00</t>
+  </si>
+  <si>
+    <t>9.30-13.00/15:00-19:00</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>9.00-13.30</t>
+  </si>
+  <si>
+    <t>5.30</t>
+  </si>
+  <si>
+    <t>8.00-14.00</t>
+  </si>
+  <si>
+    <t>Camera settings to capture the image with higher resolution + CV model testing</t>
+  </si>
+  <si>
+    <t>10.00-14.00/16.00-20.00</t>
+  </si>
+  <si>
+    <t>Report+ capturing some simulation video to show</t>
+  </si>
+  <si>
+    <t>Finilizing the report and presentation</t>
+  </si>
+  <si>
+    <t>Review of the presentation</t>
+  </si>
+  <si>
+    <t>14.00-16.00</t>
+  </si>
+  <si>
+    <t>8.00-15.00</t>
   </si>
 </sst>
 </file>
@@ -243,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -578,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F03750-5A9C-4FAA-9A20-71EE33EFB68C}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +765,7 @@
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -604,8 +778,12 @@
       <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <f>SUM(D2:D50)</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>45369</v>
       </c>
@@ -615,11 +793,11 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>45370</v>
       </c>
@@ -629,8 +807,11 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>45371</v>
       </c>
@@ -640,8 +821,11 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>45372</v>
       </c>
@@ -651,8 +835,11 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>45374</v>
       </c>
@@ -662,8 +849,11 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>45386</v>
       </c>
@@ -673,8 +863,11 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>45387</v>
       </c>
@@ -682,73 +875,598 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>45391</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>45397</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>45398</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>45400</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>45403</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45404</v>
       </c>
       <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>45405</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>45406</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>45408</v>
+      </c>
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>45412</v>
+      </c>
+      <c r="B18" t="s">
         <v>27</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>45418</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>45426</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>45427</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>45428</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>45429</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>45430</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>45431</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>45433</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>45435</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>45437</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>45438</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>45439</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>45440</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>45446</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>45448</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>45452</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>45458</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>45462</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>45465</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>45469</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>45472</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>45475</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>45476</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>45477</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>45479</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>45480</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>45482</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>45485</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>45486</v>
+      </c>
+      <c r="B49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>45487</v>
+      </c>
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
